--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -340,7 +340,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>Team 1</t>
   </si>
@@ -76,13 +76,16 @@
     <t>Henil (I)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Parth</t>
   </si>
   <si>
+    <t>Ravi</t>
+  </si>
+  <si>
     <t>Fourth</t>
+  </si>
+  <si>
+    <t>Ramsingh</t>
   </si>
   <si>
     <t>Fifth</t>
@@ -105,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,12 +119,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -153,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,26 +167,11 @@
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,7 +188,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C11" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ11" displayName="Table27891315" name="Table27891315" id="1" totalsRowShown="0">
+  <autoFilter ref="AH2:AJ11"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I11" displayName="Table26" name="Table26" id="10" totalsRowShown="0">
+  <autoFilter ref="G2:I11"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F11" displayName="Table25" name="Table25" id="11" totalsRowShown="0">
+  <autoFilter ref="D2:F11"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C11" displayName="Table2" name="Table2" id="12" totalsRowShown="0">
   <autoFilter ref="A2:C11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -217,8 +235,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD11" displayName="Table278913" name="Table278913" id="10" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG11" displayName="Table27891314" name="Table27891314" id="2" totalsRowShown="0">
+  <autoFilter ref="AE2:AG11"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD11" displayName="Table278913" name="Table278913" id="3" totalsRowShown="0">
   <autoFilter ref="AB2:AD11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -229,9 +259,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG11" displayName="Table27891314" name="Table27891314" id="11" totalsRowShown="0">
-  <autoFilter ref="AE2:AG11"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA11" displayName="Table278912" name="Table278912" id="4" totalsRowShown="0">
+  <autoFilter ref="Y2:AA11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -241,9 +271,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ11" displayName="Table27891315" name="Table27891315" id="12" totalsRowShown="0">
-  <autoFilter ref="AH2:AJ11"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X11" displayName="Table278911" name="Table278911" id="5" totalsRowShown="0">
+  <autoFilter ref="V2:X11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -253,9 +283,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F11" displayName="Table25" name="Table25" id="2" totalsRowShown="0">
-  <autoFilter ref="D2:F11"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U11" displayName="Table278910" name="Table278910" id="6" totalsRowShown="0">
+  <autoFilter ref="S2:U11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -265,9 +295,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I11" displayName="Table26" name="Table26" id="3" totalsRowShown="0">
-  <autoFilter ref="G2:I11"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R11" displayName="Table2789" name="Table2789" id="7" totalsRowShown="0">
+  <autoFilter ref="P2:R11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -277,20 +307,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L11" displayName="Table27" name="Table27" id="4" totalsRowShown="0">
-  <autoFilter ref="J2:L11"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O11" displayName="Table278" name="Table278" id="5" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O11" displayName="Table278" name="Table278" id="8" totalsRowShown="0">
   <autoFilter ref="M2:O11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -301,45 +319,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R11" displayName="Table2789" name="Table2789" id="6" totalsRowShown="0">
-  <autoFilter ref="P2:R11"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U11" displayName="Table278910" name="Table278910" id="7" totalsRowShown="0">
-  <autoFilter ref="S2:U11"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X11" displayName="Table278911" name="Table278911" id="8" totalsRowShown="0">
-  <autoFilter ref="V2:X11"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA11" displayName="Table278912" name="Table278912" id="9" totalsRowShown="0">
-  <autoFilter ref="Y2:AA11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L11" displayName="Table27" name="Table27" id="9" totalsRowShown="0">
+  <autoFilter ref="J2:L11"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -643,42 +625,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -967,571 +949,577 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.32</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>1.65</v>
       </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>1.18</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.42</v>
       </c>
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>0.42</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>0.42</v>
       </c>
       <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>0.42</v>
       </c>
       <c r="V4" s="4">
         <v>2</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="5">
         <v>0.42</v>
       </c>
       <c r="Y4" s="4">
         <v>2</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="5">
         <v>0.42</v>
       </c>
       <c r="AB4" s="4">
         <v>2</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="5">
         <v>0.42</v>
       </c>
       <c r="AE4" s="4">
         <v>2</v>
       </c>
-      <c r="AF4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG4" s="7"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="4">
         <v>2</v>
       </c>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="7"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.38</v>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.38</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>0.42</v>
       </c>
       <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="4">
         <v>3</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="4">
         <v>3</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="4">
         <v>3</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="7"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="5"/>
       <c r="Y5" s="4">
         <v>3</v>
       </c>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="7"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" s="4">
         <v>3</v>
       </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="7"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="4">
         <v>3</v>
       </c>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="7"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="5"/>
       <c r="AH5" s="4">
         <v>3</v>
       </c>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="7"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2</v>
+      </c>
       <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>0.1</v>
       </c>
       <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="4">
         <v>4</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="4">
         <v>4</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="4">
         <v>4</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="7"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="5"/>
       <c r="Y6" s="4">
         <v>4</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="7"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="4">
         <v>4</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="7"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="4">
         <v>4</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="7"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="5"/>
       <c r="AH6" s="4">
         <v>4</v>
       </c>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="7"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.1</v>
+      </c>
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.1</v>
       </c>
       <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="4">
         <v>5</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="4">
         <v>5</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="5"/>
       <c r="V7" s="4">
         <v>5</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="7"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="4">
         <v>5</v>
       </c>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="7"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="5"/>
       <c r="AB7" s="4">
         <v>5</v>
       </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="7"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="4">
         <v>5</v>
       </c>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="7"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="5"/>
       <c r="AH7" s="4">
         <v>5</v>
       </c>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="7"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.05</v>
       </c>
       <c r="J8" s="4">
         <v>6</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="4">
         <v>6</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="4">
         <v>6</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="4">
         <v>6</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="4">
         <v>6</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="7"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="5"/>
       <c r="Y8" s="4">
         <v>6</v>
       </c>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="7"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="5"/>
       <c r="AB8" s="4">
         <v>6</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="7"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="4">
         <v>6</v>
       </c>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="7"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
       <c r="AH8" s="4">
         <v>6</v>
       </c>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="7"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5">
         <v>0.05</v>
       </c>
       <c r="J9" s="4">
         <v>7</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="4">
         <v>7</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="4">
         <v>7</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
       <c r="S9" s="4">
         <v>7</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5"/>
       <c r="V9" s="4">
         <v>7</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="7"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="5"/>
       <c r="Y9" s="4">
         <v>7</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="7"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="5"/>
       <c r="AB9" s="4">
         <v>7</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="7"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="4">
         <v>7</v>
       </c>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="7"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="5"/>
       <c r="AH9" s="4">
         <v>7</v>
       </c>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="7"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
         <v>0.05</v>
       </c>
       <c r="J10" s="4">
         <v>8</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4">
         <v>8</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="4">
         <v>8</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
       <c r="S10" s="4">
         <v>8</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="4">
         <v>8</v>
       </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="7"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="5"/>
       <c r="Y10" s="4">
         <v>8</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="7"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="4">
         <v>8</v>
       </c>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="7"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="5"/>
       <c r="AE10" s="4">
         <v>8</v>
       </c>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="7"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="5"/>
       <c r="AH10" s="4">
         <v>8</v>
       </c>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="7"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4">
         <v>9</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.05</v>
       </c>
       <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
       <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="7"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="4">
         <v>9</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="5"/>
       <c r="V11" s="4">
         <v>9</v>
       </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="5"/>
       <c r="Y11" s="4">
         <v>9</v>
       </c>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="7"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" s="4">
         <v>9</v>
       </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="7"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="5"/>
       <c r="AE11" s="4">
         <v>9</v>
       </c>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="7"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="5"/>
       <c r="AH11" s="4">
         <v>9</v>
       </c>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="7"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Team 1</t>
   </si>
@@ -64,43 +64,7 @@
     <t>Captain</t>
   </si>
   <si>
-    <t>Shivam(I)</t>
-  </si>
-  <si>
-    <t>Ram(I)</t>
-  </si>
-  <si>
-    <t>Shiv</t>
-  </si>
-  <si>
-    <t>Henil (I)</t>
-  </si>
-  <si>
-    <t>Parth</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Fourth</t>
-  </si>
-  <si>
-    <t>Ramsingh</t>
-  </si>
-  <si>
-    <t>Fifth</t>
-  </si>
-  <si>
-    <t>Six</t>
-  </si>
-  <si>
-    <t>Seven</t>
-  </si>
-  <si>
-    <t>EOight</t>
-  </si>
-  <si>
-    <t>Nine</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -150,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +129,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -188,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ11" displayName="Table27891315" name="Table27891315" id="1" totalsRowShown="0">
-  <autoFilter ref="AH2:AJ11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -200,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I11" displayName="Table26" name="Table26" id="10" totalsRowShown="0">
-  <autoFilter ref="G2:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="10" totalsRowShown="0">
+  <autoFilter ref="AB2:AD12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -212,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F11" displayName="Table25" name="Table25" id="11" totalsRowShown="0">
-  <autoFilter ref="D2:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="11" totalsRowShown="0">
+  <autoFilter ref="AE2:AG12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -224,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C11" displayName="Table2" name="Table2" id="12" totalsRowShown="0">
-  <autoFilter ref="A2:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="12" totalsRowShown="0">
+  <autoFilter ref="AH2:AJ12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -236,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG11" displayName="Table27891314" name="Table27891314" id="2" totalsRowShown="0">
-  <autoFilter ref="AE2:AG11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="2" totalsRowShown="0">
+  <autoFilter ref="D2:F12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -248,8 +227,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD11" displayName="Table278913" name="Table278913" id="3" totalsRowShown="0">
-  <autoFilter ref="AB2:AD11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="3" totalsRowShown="0">
+  <autoFilter ref="G2:I12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -260,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA11" displayName="Table278912" name="Table278912" id="4" totalsRowShown="0">
-  <autoFilter ref="Y2:AA11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="4" totalsRowShown="0">
+  <autoFilter ref="J2:L12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -272,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X11" displayName="Table278911" name="Table278911" id="5" totalsRowShown="0">
-  <autoFilter ref="V2:X11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="5" totalsRowShown="0">
+  <autoFilter ref="M2:O12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -284,8 +263,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U11" displayName="Table278910" name="Table278910" id="6" totalsRowShown="0">
-  <autoFilter ref="S2:U11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="6" totalsRowShown="0">
+  <autoFilter ref="P2:R12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -296,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R11" displayName="Table2789" name="Table2789" id="7" totalsRowShown="0">
-  <autoFilter ref="P2:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="7" totalsRowShown="0">
+  <autoFilter ref="S2:U12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -308,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O11" displayName="Table278" name="Table278" id="8" totalsRowShown="0">
-  <autoFilter ref="M2:O11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="8" totalsRowShown="0">
+  <autoFilter ref="V2:X12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -320,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L11" displayName="Table27" name="Table27" id="9" totalsRowShown="0">
-  <autoFilter ref="J2:L11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="9" totalsRowShown="0">
+  <autoFilter ref="Y2:AA12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -619,51 +598,51 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +704,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -945,97 +924,77 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.32</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.65</v>
-      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1.18</v>
-      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="5"/>
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="Q4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="5"/>
       <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="T4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="5"/>
       <c r="V4" s="4">
         <v>2</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="W4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="5"/>
       <c r="Y4" s="4">
         <v>2</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="Z4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="5"/>
       <c r="AB4" s="4">
         <v>2</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="AC4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="5"/>
       <c r="AE4" s="4">
         <v>2</v>
       </c>
@@ -1047,16 +1006,14 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.38</v>
-      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>3</v>
       </c>
@@ -1065,12 +1022,10 @@
       <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.42</v>
-      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="4">
         <v>3</v>
       </c>
@@ -1117,16 +1072,14 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.2</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="4">
         <v>4</v>
       </c>
@@ -1135,12 +1088,10 @@
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="4">
         <v>4</v>
       </c>
@@ -1187,16 +1138,14 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="4">
         <v>5</v>
       </c>
@@ -1205,12 +1154,10 @@
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="4">
         <v>5</v>
       </c>
@@ -1257,7 +1204,7 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1271,12 +1218,10 @@
       <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="4">
         <v>6</v>
       </c>
@@ -1323,7 +1268,7 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1337,12 +1282,10 @@
       <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="4">
         <v>7</v>
       </c>
@@ -1389,7 +1332,7 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1403,12 +1346,10 @@
       <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="4">
         <v>8</v>
       </c>
@@ -1455,7 +1396,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1469,12 +1410,8 @@
       <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="4">
         <v>9</v>
       </c>
@@ -1520,6 +1457,70 @@
       </c>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="8">
+        <v>10</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="8">
+        <v>10</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="8">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Team 1</t>
   </si>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -137,13 +143,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -167,7 +173,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="1" totalsRowShown="0">
+  <autoFilter ref="AH2:AJ12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="10" totalsRowShown="0">
+  <autoFilter ref="G2:I12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="11" totalsRowShown="0">
+  <autoFilter ref="D2:F12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="12" totalsRowShown="0">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -178,8 +220,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="10" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="2" totalsRowShown="0">
+  <autoFilter ref="AE2:AG12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="3" totalsRowShown="0">
   <autoFilter ref="AB2:AD12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -190,9 +244,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="11" totalsRowShown="0">
-  <autoFilter ref="AE2:AG12"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="4" totalsRowShown="0">
+  <autoFilter ref="Y2:AA12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -202,9 +256,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="12" totalsRowShown="0">
-  <autoFilter ref="AH2:AJ12"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="5" totalsRowShown="0">
+  <autoFilter ref="V2:X12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -214,9 +268,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="2" totalsRowShown="0">
-  <autoFilter ref="D2:F12"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="6" totalsRowShown="0">
+  <autoFilter ref="S2:U12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -226,9 +280,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="3" totalsRowShown="0">
-  <autoFilter ref="G2:I12"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="7" totalsRowShown="0">
+  <autoFilter ref="P2:R12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -238,20 +292,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="4" totalsRowShown="0">
-  <autoFilter ref="J2:L12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="5" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="8" totalsRowShown="0">
   <autoFilter ref="M2:O12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -262,45 +304,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="6" totalsRowShown="0">
-  <autoFilter ref="P2:R12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="7" totalsRowShown="0">
-  <autoFilter ref="S2:U12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="8" totalsRowShown="0">
-  <autoFilter ref="V2:X12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="9" totalsRowShown="0">
-  <autoFilter ref="Y2:AA12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="9" totalsRowShown="0">
+  <autoFilter ref="J2:L12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -998,7 +1004,9 @@
       <c r="AE4" s="4">
         <v>2</v>
       </c>
-      <c r="AF4" s="2"/>
+      <c r="AF4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="4">
         <v>2</v>
@@ -1010,9 +1018,7 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>3</v>
@@ -1022,7 +1028,7 @@
       <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="5"/>
@@ -1076,9 +1082,7 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4">
         <v>4</v>
@@ -1088,7 +1092,7 @@
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="5"/>
@@ -1142,9 +1146,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4">
         <v>5</v>
@@ -1154,7 +1156,7 @@
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="5"/>
@@ -1218,7 +1220,7 @@
       <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="5"/>
@@ -1396,7 +1398,7 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1410,7 +1412,9 @@
       <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4">
         <v>9</v>
@@ -1458,7 +1462,7 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Team 1</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Captain</t>
   </si>
   <si>
-    <t/>
+    <t>Akash(I)</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +83,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -120,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,21 +129,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -173,7 +152,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+  <autoFilter ref="A2:C12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="10" totalsRowShown="0">
+  <autoFilter ref="AB2:AD12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="11" totalsRowShown="0">
+  <autoFilter ref="AE2:AG12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="12" totalsRowShown="0">
   <autoFilter ref="AH2:AJ12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -184,8 +199,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="10" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="2" totalsRowShown="0">
+  <autoFilter ref="D2:F12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="3" totalsRowShown="0">
   <autoFilter ref="G2:I12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -196,9 +223,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="11" totalsRowShown="0">
-  <autoFilter ref="D2:F12"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="4" totalsRowShown="0">
+  <autoFilter ref="J2:L12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -208,9 +235,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="12" totalsRowShown="0">
-  <autoFilter ref="A2:C12"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="5" totalsRowShown="0">
+  <autoFilter ref="M2:O12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -220,9 +247,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="2" totalsRowShown="0">
-  <autoFilter ref="AE2:AG12"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="6" totalsRowShown="0">
+  <autoFilter ref="P2:R12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -232,9 +259,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="3" totalsRowShown="0">
-  <autoFilter ref="AB2:AD12"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="7" totalsRowShown="0">
+  <autoFilter ref="S2:U12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -244,20 +271,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="4" totalsRowShown="0">
-  <autoFilter ref="Y2:AA12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="5" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="8" totalsRowShown="0">
   <autoFilter ref="V2:X12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -268,45 +283,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="6" totalsRowShown="0">
-  <autoFilter ref="S2:U12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="7" totalsRowShown="0">
-  <autoFilter ref="P2:R12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="8" totalsRowShown="0">
-  <autoFilter ref="M2:O12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="9" totalsRowShown="0">
-  <autoFilter ref="J2:L12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="9" totalsRowShown="0">
+  <autoFilter ref="Y2:AA12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -610,42 +589,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -934,79 +913,61 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>1.5</v>
+      </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="5"/>
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="5"/>
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" s="5"/>
       <c r="S4" s="4">
         <v>2</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="T4" s="2"/>
       <c r="U4" s="5"/>
       <c r="V4" s="4">
         <v>2</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="W4" s="2"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="4">
         <v>2</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="4">
         <v>2</v>
       </c>
-      <c r="AC4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="4">
         <v>2</v>
       </c>
-      <c r="AF4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="4">
         <v>2</v>
@@ -1028,9 +989,7 @@
       <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4">
         <v>3</v>
@@ -1092,9 +1051,7 @@
       <c r="G6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4">
         <v>4</v>
@@ -1156,9 +1113,7 @@
       <c r="G7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4">
         <v>5</v>
@@ -1220,9 +1175,7 @@
       <c r="G8" s="4">
         <v>6</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4">
         <v>6</v>
@@ -1284,9 +1237,7 @@
       <c r="G9" s="4">
         <v>7</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4">
         <v>7</v>
@@ -1348,9 +1299,7 @@
       <c r="G10" s="4">
         <v>8</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4">
         <v>8</v>
@@ -1412,9 +1361,7 @@
       <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4">
         <v>9</v>
@@ -1462,69 +1409,67 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="8">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4">
         <v>10</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="8">
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="8">
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="4">
         <v>10</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="8">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="4">
         <v>10</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="8">
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="4">
         <v>10</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="8">
+      <c r="W12" s="4"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="4">
         <v>10</v>
       </c>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="8">
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="4">
         <v>10</v>
       </c>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="8">
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="4">
         <v>10</v>
       </c>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="8">
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="4">
         <v>10</v>
       </c>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="9"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>Team 1</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Captain</t>
   </si>
   <si>
-    <t>Akash(I)</t>
+    <t>u(i)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="1" totalsRowShown="0">
+  <autoFilter ref="AH2:AJ12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="10" totalsRowShown="0">
+  <autoFilter ref="G2:I12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="11" totalsRowShown="0">
+  <autoFilter ref="D2:F12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:C12" displayName="Table2" name="Table2" id="12" totalsRowShown="0">
   <autoFilter ref="A2:C12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -163,8 +199,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="10" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="2" totalsRowShown="0">
+  <autoFilter ref="AE2:AG12"/>
+  <tableColumns count="3">
+    <tableColumn name="Index" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Price" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AB2:AD12" displayName="Table278913" name="Table278913" id="3" totalsRowShown="0">
   <autoFilter ref="AB2:AD12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -175,9 +223,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AE2:AG12" displayName="Table27891314" name="Table27891314" id="11" totalsRowShown="0">
-  <autoFilter ref="AE2:AG12"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="4" totalsRowShown="0">
+  <autoFilter ref="Y2:AA12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -187,9 +235,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="AH2:AJ12" displayName="Table27891315" name="Table27891315" id="12" totalsRowShown="0">
-  <autoFilter ref="AH2:AJ12"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="5" totalsRowShown="0">
+  <autoFilter ref="V2:X12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -199,9 +247,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D2:F12" displayName="Table25" name="Table25" id="2" totalsRowShown="0">
-  <autoFilter ref="D2:F12"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="6" totalsRowShown="0">
+  <autoFilter ref="S2:U12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -211,9 +259,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G2:I12" displayName="Table26" name="Table26" id="3" totalsRowShown="0">
-  <autoFilter ref="G2:I12"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="7" totalsRowShown="0">
+  <autoFilter ref="P2:R12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -223,20 +271,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="4" totalsRowShown="0">
-  <autoFilter ref="J2:L12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="5" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="M2:O12" displayName="Table278" name="Table278" id="8" totalsRowShown="0">
   <autoFilter ref="M2:O12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
@@ -247,45 +283,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="P2:R12" displayName="Table2789" name="Table2789" id="6" totalsRowShown="0">
-  <autoFilter ref="P2:R12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="S2:U12" displayName="Table278910" name="Table278910" id="7" totalsRowShown="0">
-  <autoFilter ref="S2:U12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="V2:X12" displayName="Table278911" name="Table278911" id="8" totalsRowShown="0">
-  <autoFilter ref="V2:X12"/>
-  <tableColumns count="3">
-    <tableColumn name="Index" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Price" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="Y2:AA12" displayName="Table278912" name="Table278912" id="9" totalsRowShown="0">
-  <autoFilter ref="Y2:AA12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J2:L12" displayName="Table27" name="Table27" id="9" totalsRowShown="0">
+  <autoFilter ref="J2:L12"/>
   <tableColumns count="3">
     <tableColumn name="Index" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -917,18 +917,26 @@
         <v>16</v>
       </c>
       <c r="C4" s="5">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="4">
         <v>2</v>
       </c>

--- a/data/TeamsData.xlsx
+++ b/data/TeamsData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Team 1</t>
   </si>
@@ -61,10 +61,43 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Captain</t>
-  </si>
-  <si>
-    <t>u(i)</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Trusha</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Parth Sir</t>
+  </si>
+  <si>
+    <t>Archish</t>
+  </si>
+  <si>
+    <t>Jaimin</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Tejash Sir</t>
+  </si>
+  <si>
+    <t>Divya Ma'am</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>User 11</t>
+  </si>
+  <si>
+    <t>User 12</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -114,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +162,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -589,42 +625,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -813,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -822,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -831,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -840,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O3" s="5">
         <v>0</v>
@@ -849,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R3" s="5">
         <v>0</v>
@@ -858,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="U3" s="5">
         <v>0</v>
@@ -867,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="X3" s="5">
         <v>0</v>
@@ -876,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="5">
         <v>0</v>
@@ -885,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AD3" s="5">
         <v>0</v>
@@ -894,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="5">
         <v>0</v>
@@ -903,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ3" s="5">
         <v>0</v>
@@ -913,34 +949,30 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.65</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="4">
         <v>2</v>
@@ -950,7 +982,9 @@
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="4">
         <v>2</v>
@@ -1012,7 +1046,9 @@
       <c r="P5" s="4">
         <v>3</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="4">
         <v>3</v>
@@ -1074,7 +1110,9 @@
       <c r="P6" s="4">
         <v>4</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="4">
         <v>4</v>
@@ -1136,7 +1174,9 @@
       <c r="P7" s="4">
         <v>5</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="4">
         <v>5</v>
@@ -1198,7 +1238,9 @@
       <c r="P8" s="4">
         <v>6</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="4">
         <v>6</v>
@@ -1260,7 +1302,9 @@
       <c r="P9" s="4">
         <v>7</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="4">
         <v>7</v>
@@ -1322,7 +1366,9 @@
       <c r="P10" s="4">
         <v>8</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="4">
         <v>8</v>
@@ -1384,7 +1430,9 @@
       <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="4">
         <v>9</v>
